--- a/DRL_Automated_Trading/results14/HEI.DE.xlsx
+++ b/DRL_Automated_Trading/results14/HEI.DE.xlsx
@@ -5836,25 +5836,25 @@
         <v>44349</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>12994.56709673751</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="E169" t="n">
-        <v>16543</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1275225.45447543</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="G169" t="n">
         <v>76.29999923706055</v>
       </c>
       <c r="H169" t="n">
-        <v>827.2885324272156</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1263058.17591112</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5871,25 +5871,25 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="G170" t="n">
         <v>76.09999847412109</v>
       </c>
       <c r="H170" t="n">
-        <v>825.3033648544312</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-4961.204518589191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5903,13 +5903,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="G171" t="n">
         <v>76.20000076293945</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="G172" t="n">
         <v>75.61000061035156</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1271091.538489268</v>
+        <v>1276052.743007857</v>
       </c>
       <c r="G173" t="n">
         <v>74.62999725341797</v>
@@ -5999,22 +5999,22 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>12930.68658926816</v>
+        <v>12971.94090785735</v>
       </c>
       <c r="E174" t="n">
-        <v>16877</v>
+        <v>16943</v>
       </c>
       <c r="F174" t="n">
-        <v>1270267.186589268</v>
+        <v>1275225.440907857</v>
       </c>
       <c r="G174" t="n">
         <v>74.5</v>
       </c>
       <c r="H174" t="n">
-        <v>824.3519</v>
+        <v>827.3021</v>
       </c>
       <c r="I174" t="n">
-        <v>1258160.8519</v>
+        <v>1263080.8021</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="G175" t="n">
         <v>74.65999984741211</v>
       </c>
       <c r="H175" t="n">
-        <v>825.9720904548645</v>
+        <v>828.928626448822</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>1049.993434319505</v>
+        <v>1054.64668825455</v>
       </c>
     </row>
     <row r="176">
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="G176" t="n">
         <v>74.73999786376953</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="G177" t="n">
         <v>75.25</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1272141.531923588</v>
+        <v>1277107.389696112</v>
       </c>
       <c r="G178" t="n">
         <v>74.79999923706055</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>12895.49189040514</v>
+        <v>12963.85293700622</v>
       </c>
       <c r="E179" t="n">
-        <v>16969</v>
+        <v>17035</v>
       </c>
       <c r="F179" t="n">
-        <v>1271316.529301141</v>
+        <v>1276279.450337671</v>
       </c>
       <c r="G179" t="n">
         <v>74.15999984741211</v>
       </c>
       <c r="H179" t="n">
-        <v>825.0026224464416</v>
+        <v>827.9393584403992</v>
       </c>
       <c r="I179" t="n">
-        <v>1259246.040033183</v>
+        <v>1264143.536759106</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>1265403.894037246</v>
+        <v>1270344.090268107</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1265403.894037246</v>
+        <v>1270344.090268107</v>
       </c>
       <c r="G180" t="n">
         <v>73.86000061035156</v>
       </c>
       <c r="H180" t="n">
-        <v>821.9482102142334</v>
+        <v>824.8730662384033</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-6737.637886341196</v>
+        <v>-6763.299428005237</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>1265403.894037246</v>
+        <v>1270344.090268107</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1265403.894037246</v>
+        <v>1270344.090268107</v>
       </c>
       <c r="G181" t="n">
         <v>72.46999740600586</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>12825.13740241371</v>
+        <v>12901.77728042051</v>
       </c>
       <c r="E182" t="n">
-        <v>17512</v>
+        <v>17580</v>
       </c>
       <c r="F182" t="n">
-        <v>1264582.889386056</v>
+        <v>1269520.169232935</v>
       </c>
       <c r="G182" t="n">
         <v>71.47999954223633</v>
       </c>
       <c r="H182" t="n">
-        <v>821.0046511901857</v>
+        <v>823.9210351715088</v>
       </c>
       <c r="I182" t="n">
-        <v>1252578.756634833</v>
+        <v>1257442.312987686</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>1285813.803050088</v>
+        <v>1290833.795250162</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1285813.803050088</v>
+        <v>1290833.795250162</v>
       </c>
       <c r="G183" t="n">
         <v>72.7400016784668</v>
       </c>
       <c r="H183" t="n">
-        <v>834.2437456359864</v>
+        <v>837.2115377044678</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>20409.90901284176</v>
+        <v>20489.70498205558</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>13077.38572224704</v>
+        <v>13072.54465122808</v>
       </c>
       <c r="E184" t="n">
-        <v>17476</v>
+        <v>17545</v>
       </c>
       <c r="F184" t="n">
-        <v>1284980.711054889</v>
+        <v>1289997.690162855</v>
       </c>
       <c r="G184" t="n">
         <v>72.78000259399414</v>
       </c>
       <c r="H184" t="n">
-        <v>833.0919951995851</v>
+        <v>836.1050873069764</v>
       </c>
       <c r="I184" t="n">
-        <v>1272736.417327841</v>
+        <v>1277761.250598934</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G185" t="n">
         <v>73.29000091552734</v>
       </c>
       <c r="H185" t="n">
-        <v>838.4396335998536</v>
+        <v>841.4738396377564</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>7241.199038314633</v>
+        <v>7270.341624355176</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G186" t="n">
         <v>75.15000152587891</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G187" t="n">
         <v>74.13000106811523</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G188" t="n">
         <v>73.22999954223633</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G189" t="n">
         <v>72.7400016784668</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G190" t="n">
         <v>72.40999984741211</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G191" t="n">
         <v>72.09999847412109</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G192" t="n">
         <v>71.97999954223633</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G193" t="n">
         <v>73.22000122070312</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1293055.002088403</v>
+        <v>1298104.136874517</v>
       </c>
       <c r="G194" t="n">
         <v>74.93999862670898</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>13164.47079995987</v>
+        <v>13203.08111560324</v>
       </c>
       <c r="E195" t="n">
-        <v>17369</v>
+        <v>17437</v>
       </c>
       <c r="F195" t="n">
-        <v>1292217.620198764</v>
+        <v>1297263.750472903</v>
       </c>
       <c r="G195" t="n">
         <v>73.63999938964844</v>
       </c>
       <c r="H195" t="n">
-        <v>837.3818896392822</v>
+        <v>840.3864016143799</v>
       </c>
       <c r="I195" t="n">
-        <v>1279890.531288443</v>
+        <v>1284901.055758914</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>13164.47079995987</v>
+        <v>13203.08111560324</v>
       </c>
       <c r="E196" t="n">
-        <v>17369</v>
+        <v>17437</v>
       </c>
       <c r="F196" t="n">
-        <v>1298470.47079996</v>
+        <v>1303541.081115603</v>
       </c>
       <c r="G196" t="n">
         <v>74</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1279890.531288443</v>
+        <v>1284901.055758914</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>13164.47079995987</v>
+        <v>13203.08111560324</v>
       </c>
       <c r="E197" t="n">
-        <v>17369</v>
+        <v>17437</v>
       </c>
       <c r="F197" t="n">
-        <v>1294996.657548465</v>
+        <v>1300053.667812228</v>
       </c>
       <c r="G197" t="n">
         <v>73.79999923706055</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1279890.531288443</v>
+        <v>1284901.055758914</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>13164.47079995987</v>
+        <v>13203.08111560324</v>
       </c>
       <c r="E198" t="n">
-        <v>17369</v>
+        <v>17437</v>
       </c>
       <c r="F198" t="n">
-        <v>1317055.361756839</v>
+        <v>1322198.732311129</v>
       </c>
       <c r="G198" t="n">
         <v>75.07000350952148</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1279890.531288443</v>
+        <v>1284901.055758914</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -6799,25 +6799,25 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>1307350.098836618</v>
+        <v>1312455.746938345</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1307350.098836618</v>
+        <v>1312455.746938345</v>
       </c>
       <c r="G199" t="n">
         <v>74.55999755859375</v>
       </c>
       <c r="H199" t="n">
-        <v>846.9695585571289</v>
+        <v>850.0116064575195</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>14295.09674821491</v>
+        <v>14351.6100638276</v>
       </c>
     </row>
     <row r="200">
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1307350.098836618</v>
+        <v>1312455.746938345</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1307350.098836618</v>
+        <v>1312455.746938345</v>
       </c>
       <c r="G200" t="n">
         <v>74.22999954223633</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>1307350.098836618</v>
+        <v>1312455.746938345</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1307350.098836618</v>
+        <v>1312455.746938345</v>
       </c>
       <c r="G201" t="n">
         <v>73.20999908447266</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>13298.56153217671</v>
+        <v>13292.74453893935</v>
       </c>
       <c r="E202" t="n">
-        <v>18227</v>
+        <v>18299</v>
       </c>
       <c r="F202" t="n">
-        <v>1306504.225438274</v>
+        <v>1311606.808499968</v>
       </c>
       <c r="G202" t="n">
         <v>70.95000076293945</v>
       </c>
       <c r="H202" t="n">
-        <v>845.8733983436586</v>
+        <v>848.9384383766175</v>
       </c>
       <c r="I202" t="n">
-        <v>1294051.537304441</v>
+        <v>1299163.002399406</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,13 +6927,13 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>120.2217425954084</v>
+        <v>114.4047493580536</v>
       </c>
       <c r="E203" t="n">
-        <v>18411</v>
+        <v>18483</v>
       </c>
       <c r="F203" t="n">
-        <v>1312456.349500621</v>
+        <v>1317582.692694152</v>
       </c>
       <c r="G203" t="n">
         <v>71.28000259399414</v>
@@ -6942,7 +6942,7 @@
         <v>62.81931228637696</v>
       </c>
       <c r="I203" t="n">
-        <v>1307229.877094022</v>
+        <v>1312341.342188987</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>120.2217425954084</v>
+        <v>114.4047493580536</v>
       </c>
       <c r="E204" t="n">
-        <v>18411</v>
+        <v>18483</v>
       </c>
       <c r="F204" t="n">
-        <v>1341361.61388203</v>
+        <v>1346600.997053588</v>
       </c>
       <c r="G204" t="n">
         <v>72.85000228881836</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1307229.877094022</v>
+        <v>1312341.342188987</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G205" t="n">
         <v>74.26999664306641</v>
       </c>
       <c r="H205" t="n">
-        <v>890.3809449172974</v>
+        <v>893.5894087722779</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>59264.65015655616</v>
+        <v>59497.41635603714</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G206" t="n">
         <v>74.43000030517578</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G207" t="n">
         <v>74.28000259399414</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G208" t="n">
         <v>74.22000122070312</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G209" t="n">
         <v>75.61000061035156</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G210" t="n">
         <v>74.22999954223633</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1366614.748993174</v>
+        <v>1371953.163294382</v>
       </c>
       <c r="G211" t="n">
         <v>75.34999847412109</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>13911.364226357</v>
+        <v>13940.05475532882</v>
       </c>
       <c r="E212" t="n">
-        <v>18087</v>
+        <v>18158</v>
       </c>
       <c r="F212" t="n">
-        <v>1365733.705588357</v>
+        <v>1371068.935965656</v>
       </c>
       <c r="G212" t="n">
         <v>74.73999786376953</v>
       </c>
       <c r="H212" t="n">
-        <v>881.0434048171998</v>
+        <v>884.2273287261964</v>
       </c>
       <c r="I212" t="n">
-        <v>1352703.384766817</v>
+        <v>1358013.108539053</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>145.7132159382952</v>
+        <v>99.88906550566546</v>
       </c>
       <c r="E213" t="n">
-        <v>18271</v>
+        <v>18343</v>
       </c>
       <c r="F213" t="n">
-        <v>1360787.035821071</v>
+        <v>1366103.051483871</v>
       </c>
       <c r="G213" t="n">
         <v>74.46999740600586</v>
       </c>
       <c r="H213" t="n">
-        <v>63.17148771362305</v>
+        <v>63.21616971206665</v>
       </c>
       <c r="I213" t="n">
-        <v>1366469.035777235</v>
+        <v>1371853.274228876</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>1371769.753200114</v>
+        <v>1377129.323788823</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1371769.753200114</v>
+        <v>1377129.323788823</v>
       </c>
       <c r="G214" t="n">
         <v>75.11999893188477</v>
       </c>
       <c r="H214" t="n">
-        <v>893.46050029068</v>
+        <v>896.7056842445373</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>5155.004206940532</v>
+        <v>5176.160494441167</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>1371769.753200114</v>
+        <v>1377129.323788823</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>1371769.753200114</v>
+        <v>1377129.323788823</v>
       </c>
       <c r="G215" t="n">
         <v>75.36999893188477</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1371769.753200114</v>
+        <v>1377129.323788823</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1371769.753200114</v>
+        <v>1377129.323788823</v>
       </c>
       <c r="G216" t="n">
         <v>75.59000015258789</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>13959.63477885798</v>
+        <v>14017.54626857415</v>
       </c>
       <c r="E217" t="n">
-        <v>18439</v>
+        <v>18511</v>
       </c>
       <c r="F217" t="n">
-        <v>1370885.647592426</v>
+        <v>1376242.039093129</v>
       </c>
       <c r="G217" t="n">
         <v>73.59000015258789</v>
       </c>
       <c r="H217" t="n">
-        <v>884.1056076881409</v>
+        <v>887.2846956947327</v>
       </c>
       <c r="I217" t="n">
-        <v>1357810.118421256</v>
+        <v>1363111.777520249</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>13959.63477885798</v>
+        <v>14017.54626857415</v>
       </c>
       <c r="E218" t="n">
-        <v>18439</v>
+        <v>18511</v>
       </c>
       <c r="F218" t="n">
-        <v>1370148.070711017</v>
+        <v>1375501.582145802</v>
       </c>
       <c r="G218" t="n">
         <v>73.54999923706055</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1357810.118421256</v>
+        <v>1363111.777520249</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G219" t="n">
         <v>74.51000213623047</v>
       </c>
       <c r="H219" t="n">
-        <v>894.2839576339722</v>
+        <v>897.5027897262573</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>15185.52701106342</v>
+        <v>15245.36923378683</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G220" t="n">
         <v>75.68000030517578</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G221" t="n">
         <v>76.47999954223633</v>
@@ -7535,13 +7535,13 @@
         <v>-1</v>
       </c>
       <c r="D222" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G222" t="n">
         <v>75.83999633789062</v>
@@ -7567,13 +7567,13 @@
         <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G223" t="n">
         <v>75.46999740600586</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G224" t="n">
         <v>74.65999984741211</v>
@@ -7631,13 +7631,13 @@
         <v>-1</v>
       </c>
       <c r="D225" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1386955.280211178</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G225" t="n">
         <v>72.88000106811523</v>
@@ -7660,25 +7660,25 @@
         <v>44428</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>14098.01846095182</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="E226" t="n">
-        <v>19063</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>1386062.151731215</v>
+        <v>1392374.69302261</v>
       </c>
       <c r="G226" t="n">
         <v>71.97000122070312</v>
       </c>
       <c r="H226" t="n">
-        <v>893.1284799621583</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1372857.261750226</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>116.5477630842395</v>
+        <v>14162.50370116927</v>
       </c>
       <c r="E227" t="n">
-        <v>19254</v>
+        <v>18901</v>
       </c>
       <c r="F227" t="n">
-        <v>1403155.507197594</v>
+        <v>1391478.353512723</v>
       </c>
       <c r="G227" t="n">
         <v>72.86999893188477</v>
       </c>
       <c r="H227" t="n">
-        <v>63.300901877594</v>
+        <v>896.3395098869323</v>
       </c>
       <c r="I227" t="n">
-        <v>1386838.732448094</v>
+        <v>1378212.189321441</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,22 +7727,22 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>30.01776018506957</v>
+        <v>141.7787099964752</v>
       </c>
       <c r="E228" t="n">
-        <v>19255</v>
+        <v>19091</v>
       </c>
       <c r="F228" t="n">
-        <v>1414502.373583702</v>
+        <v>1402566.694058049</v>
       </c>
       <c r="G228" t="n">
         <v>73.46000289916992</v>
       </c>
       <c r="H228" t="n">
-        <v>13.07</v>
+        <v>63.32444033050538</v>
       </c>
       <c r="I228" t="n">
-        <v>1386925.262450993</v>
+        <v>1392232.914312614</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,22 +7759,22 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>30.01776018506957</v>
+        <v>55.08871106459039</v>
       </c>
       <c r="E229" t="n">
-        <v>19255</v>
+        <v>19092</v>
       </c>
       <c r="F229" t="n">
-        <v>1417583.097193626</v>
+        <v>1405608.108318608</v>
       </c>
       <c r="G229" t="n">
         <v>73.61999893188477</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I229" t="n">
-        <v>1386925.262450993</v>
+        <v>1392319.604311546</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>30.01776018506957</v>
+        <v>55.08871106459039</v>
       </c>
       <c r="E230" t="n">
-        <v>19255</v>
+        <v>19092</v>
       </c>
       <c r="F230" t="n">
-        <v>1414309.782450584</v>
+        <v>1402362.503277105</v>
       </c>
       <c r="G230" t="n">
         <v>73.45000076293945</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>1386925.262450993</v>
+        <v>1392319.604311546</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>30.01776018506957</v>
+        <v>55.08871106459039</v>
       </c>
       <c r="E231" t="n">
-        <v>19255</v>
+        <v>19092</v>
       </c>
       <c r="F231" t="n">
-        <v>1422011.738379387</v>
+        <v>1409999.259578984</v>
       </c>
       <c r="G231" t="n">
         <v>73.84999847412109</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>1386925.262450993</v>
+        <v>1392319.604311546</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G232" t="n">
         <v>74.04000091552734</v>
       </c>
       <c r="H232" t="n">
-        <v>925.3341305770874</v>
+        <v>918.093018487549</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>37789.62104690913</v>
+        <v>20334.00014921487</v>
       </c>
     </row>
     <row r="233">
@@ -7887,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G233" t="n">
         <v>73.84000015258789</v>
@@ -7919,13 +7919,13 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G234" t="n">
         <v>73.84000015258789</v>
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G235" t="n">
         <v>73.34000015258789</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G236" t="n">
         <v>72.69000244140625</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G237" t="n">
         <v>72.37000274658203</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G238" t="n">
         <v>71.40000152587891</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G239" t="n">
         <v>70.15999984741211</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G240" t="n">
         <v>69</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>1424744.901258087</v>
+        <v>1412708.693171825</v>
       </c>
       <c r="G241" t="n">
         <v>69.01000213623047</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>14450.47398396669</v>
+        <v>14362.36011629829</v>
       </c>
       <c r="E242" t="n">
-        <v>20183</v>
+        <v>20012</v>
       </c>
       <c r="F242" t="n">
-        <v>1423829.323948109</v>
+        <v>1411800.280419643</v>
       </c>
       <c r="G242" t="n">
         <v>69.82999801635742</v>
       </c>
       <c r="H242" t="n">
-        <v>915.5773099784851</v>
+        <v>908.4127521820069</v>
       </c>
       <c r="I242" t="n">
-        <v>1410294.42727412</v>
+        <v>1398346.333055527</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8207,25 +8207,25 @@
         <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="G243" t="n">
         <v>69.65999984741211</v>
       </c>
       <c r="H243" t="n">
-        <v>913.5186661521913</v>
+        <v>906.3715501678467</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>-5260.169019953813</v>
+        <v>-5216.787659283495</v>
       </c>
     </row>
     <row r="244">
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="G244" t="n">
         <v>69.72000122070312</v>
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="G245" t="n">
         <v>68.95000076293945</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="G246" t="n">
         <v>67.5099983215332</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>1419484.732238133</v>
+        <v>1407491.905512542</v>
       </c>
       <c r="G247" t="n">
         <v>63.8700008392334</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>14388.15521012341</v>
+        <v>14307.27150499682</v>
       </c>
       <c r="E248" t="n">
-        <v>21703</v>
+        <v>21519</v>
       </c>
       <c r="F248" t="n">
-        <v>1418572.271768198</v>
+        <v>1406586.587922691</v>
       </c>
       <c r="G248" t="n">
         <v>64.70000076293945</v>
       </c>
       <c r="H248" t="n">
-        <v>912.460469934845</v>
+        <v>905.3175898506165</v>
       </c>
       <c r="I248" t="n">
-        <v>1405096.57702801</v>
+        <v>1393184.634007545</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>1431107.574614867</v>
+        <v>1419015.022293859</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1431107.574614867</v>
+        <v>1419015.022293859</v>
       </c>
       <c r="G249" t="n">
         <v>65.31999969482422</v>
       </c>
       <c r="H249" t="n">
-        <v>920.533972026062</v>
+        <v>913.3226440597534</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>11622.84237673413</v>
+        <v>11523.11678131786</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>1431107.574614867</v>
+        <v>1419015.022293859</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1431107.574614867</v>
+        <v>1419015.022293859</v>
       </c>
       <c r="G250" t="n">
         <v>66.40999984741211</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>1431107.574614867</v>
+        <v>1419015.022293859</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1431107.574614867</v>
+        <v>1419015.022293859</v>
       </c>
       <c r="G251" t="n">
         <v>66.61999893188477</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>14507.67799996102</v>
+        <v>14407.05616965285</v>
       </c>
       <c r="E252" t="n">
-        <v>21026</v>
+        <v>20848</v>
       </c>
       <c r="F252" t="n">
-        <v>1430188.216291892</v>
+        <v>1418102.854814672</v>
       </c>
       <c r="G252" t="n">
         <v>67.32999801635742</v>
       </c>
       <c r="H252" t="n">
-        <v>919.3583229751588</v>
+        <v>912.1674791870118</v>
       </c>
       <c r="I252" t="n">
-        <v>1416599.896614906</v>
+        <v>1404607.966124207</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>1420022.997690409</v>
+        <v>1408023.099820678</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1420022.997690409</v>
+        <v>1408023.099820678</v>
       </c>
       <c r="G253" t="n">
         <v>66.88999938964844</v>
       </c>
       <c r="H253" t="n">
-        <v>913.8074763000488</v>
+        <v>906.6636243652345</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-11084.57692445838</v>
+        <v>-10991.92247318127</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1420022.997690409</v>
+        <v>1408023.099820678</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1420022.997690409</v>
+        <v>1408023.099820678</v>
       </c>
       <c r="G254" t="n">
         <v>65.45000076293945</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>14416.33507426058</v>
+        <v>14316.74341387346</v>
       </c>
       <c r="E255" t="n">
-        <v>21614</v>
+        <v>21431</v>
       </c>
       <c r="F255" t="n">
-        <v>1419110.231352642</v>
+        <v>1407117.469385095</v>
       </c>
       <c r="G255" t="n">
         <v>64.9900016784668</v>
       </c>
       <c r="H255" t="n">
-        <v>912.7663377670289</v>
+        <v>905.6304355827333</v>
       </c>
       <c r="I255" t="n">
-        <v>1405606.662616148</v>
+        <v>1393706.356406805</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
